--- a/TestCases/09-ChangePasswordHRM.xlsx
+++ b/TestCases/09-ChangePasswordHRM.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="ChangePassword HRM" sheetId="1" r:id="rId1"/>
+    <sheet name="TestScenario - ChangePassword" sheetId="2" r:id="rId1"/>
+    <sheet name="TestCase - ChangePassword HRM" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>Project Name</t>
   </si>
@@ -74,9 +75,6 @@
     <t>TC_ORM_02</t>
   </si>
   <si>
-    <t>Integtration Testing</t>
-  </si>
-  <si>
     <t>TC_ORM_03</t>
   </si>
   <si>
@@ -176,12 +174,6 @@
     <t>sam</t>
   </si>
   <si>
-    <t>Checking Error Message without any providing input</t>
-  </si>
-  <si>
-    <t>It Should Display Required Message</t>
-  </si>
-  <si>
     <t>Checking Previous Window by clicking cancel button</t>
   </si>
   <si>
@@ -227,9 +219,6 @@
     <t>It has displayed password do not match successfully</t>
   </si>
   <si>
-    <t>It has dispalyed Required Message</t>
-  </si>
-  <si>
     <t>It has gone back to previous page successfully</t>
   </si>
   <si>
@@ -260,7 +249,43 @@
     <t>It Should display Current password and new password should not same</t>
   </si>
   <si>
-    <t>Integration Testing</t>
+    <t>Smoke Testing</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>S No</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Check wheather login Url is working or not</t>
+  </si>
+  <si>
+    <t>Check wheather disabled element is enabling by clicking edit button is working or not</t>
+  </si>
+  <si>
+    <t>Check wheather Admin/Ess by providing new valid password is working or not</t>
+  </si>
+  <si>
+    <t>Check wheather Admin/Ess by providing Strong password with special characters and numbers is working or not</t>
+  </si>
+  <si>
+    <t>Check wheather Admin/Ess by providing already existing password is working or not</t>
+  </si>
+  <si>
+    <t>It Should Display Mandatory Required Message</t>
+  </si>
+  <si>
+    <t>It has dispalyed Mandatory Required Message</t>
+  </si>
+  <si>
+    <t>Checking Mandatory Error Message by leaving Field blank</t>
+  </si>
+  <si>
+    <t>Check wheather previous window appear by clicking cancel button is working or not</t>
   </si>
 </sst>
 </file>
@@ -534,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -542,6 +567,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -557,9 +588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -581,9 +609,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -605,12 +630,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -627,12 +646,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,13 +663,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,6 +839,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1102,10 +1136,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="85"/>
+      <c r="C6" s="90"/>
+    </row>
+    <row r="7" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="86"/>
+      <c r="C7" s="91"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="33">
+        <v>1</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="95"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="96"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="95"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="96"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="95"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="96"/>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="95"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="96"/>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="95"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="96"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="95"/>
+    </row>
+    <row r="25" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
+      <c r="C25" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88:F90"/>
+    <sheetView topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103:C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1121,216 +1303,218 @@
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="51" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="57" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="61"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
-    </row>
-    <row r="5" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="57" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="69"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="73"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="75">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="73">
         <v>43202</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="57" t="s">
+      <c r="F9" s="74"/>
+      <c r="G9" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="75">
+      <c r="H9" s="30"/>
+      <c r="I9" s="73">
         <v>43203</v>
       </c>
-      <c r="J9" s="81"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="83"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="15" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="86" t="s">
+      <c r="F16" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="89" t="s">
+      <c r="G16" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="89" t="s">
+      <c r="H16" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="89" t="s">
+      <c r="I16" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="87"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="35"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="88"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="36"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="39" t="s">
+      <c r="B19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="41"/>
+      <c r="C19" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1338,120 +1522,122 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="29"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="32" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="35"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="29"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="29"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>25</v>
-      </c>
+      <c r="E25" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="35"/>
       <c r="G25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I25" s="6"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="29"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" s="24"/>
+      <c r="H28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
@@ -1461,8 +1647,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="25"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
@@ -1472,35 +1658,37 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="25"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="E31" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="6"/>
+      <c r="F31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
@@ -1510,7 +1698,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -1521,24 +1709,22 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -1549,7 +1735,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -1560,24 +1746,22 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="6"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -1588,7 +1772,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="4"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -1599,22 +1783,22 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -1625,47 +1809,47 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="7"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -1675,8 +1859,8 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="10"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -1686,25 +1870,23 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="10"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="22"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="10"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -1714,8 +1896,8 @@
       <c r="E47" s="2"/>
       <c r="F47" s="1"/>
       <c r="G47" s="22"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="10"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -1725,25 +1907,23 @@
       <c r="E48" s="2"/>
       <c r="F48" s="1"/>
       <c r="G48" s="22"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="10"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="11"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="10"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="11"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -1753,8 +1933,8 @@
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="10"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="11"/>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -1764,23 +1944,23 @@
       <c r="E51" s="2"/>
       <c r="F51" s="1"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="10"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="22"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="10"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="11"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
@@ -1790,47 +1970,49 @@
       <c r="E53" s="2"/>
       <c r="F53" s="1"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="10"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="11"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="11"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="12"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="16" t="s">
+      <c r="B55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J55" s="6"/>
+      <c r="H55" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
@@ -1840,7 +2022,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="4"/>
+      <c r="I56" s="6"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -1851,24 +2033,22 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="4"/>
+      <c r="I57" s="6"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="4"/>
+      <c r="I58" s="6"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -1879,7 +2059,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="4"/>
+      <c r="I59" s="6"/>
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -1890,24 +2070,22 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="4"/>
+      <c r="I60" s="6"/>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="4"/>
+      <c r="I61" s="6"/>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -1918,7 +2096,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="4"/>
+      <c r="I62" s="6"/>
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -1929,22 +2107,22 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="4"/>
+      <c r="I63" s="6"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="4"/>
+      <c r="I64" s="6"/>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -1955,557 +2133,559 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="4"/>
+      <c r="I65" s="6"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="7"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="16" t="s">
+      <c r="B67" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="16" t="s">
-        <v>40</v>
+      <c r="C67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H67" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>77</v>
+      <c r="J67" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="13"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
-      <c r="I68" s="10"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="13"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
-      <c r="I69" s="10"/>
+      <c r="I69" s="11"/>
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="13"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F70" s="1"/>
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
-      <c r="I70" s="10"/>
+      <c r="I70" s="11"/>
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="13"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
       <c r="F71" s="1"/>
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
-      <c r="I71" s="10"/>
+      <c r="I71" s="11"/>
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="13"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="1"/>
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
-      <c r="I72" s="10"/>
+      <c r="I72" s="11"/>
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="13"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F73" s="1"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
-      <c r="I73" s="10"/>
+      <c r="I73" s="11"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="13"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
-      <c r="I74" s="10"/>
+      <c r="I74" s="11"/>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="13"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
-      <c r="I75" s="10"/>
+      <c r="I75" s="11"/>
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="13"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
-      <c r="I76" s="10"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="13"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
-      <c r="I77" s="10"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="19"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="4"/>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="7"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="9"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>40</v>
+      <c r="B79" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J79" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="13"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="4"/>
+      <c r="I80" s="6"/>
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="13"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="4"/>
+      <c r="I81" s="6"/>
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="13"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="4"/>
+      <c r="I82" s="6"/>
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="13"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="4"/>
+      <c r="I83" s="6"/>
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="13"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="4"/>
+      <c r="I84" s="6"/>
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="13"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="4"/>
+      <c r="I85" s="6"/>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="13"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="4"/>
+      <c r="I86" s="6"/>
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="4"/>
+      <c r="I87" s="6"/>
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="13"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="4"/>
+      <c r="I88" s="6"/>
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="13"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="4"/>
+      <c r="I89" s="6"/>
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="19"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="7"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="9"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="20"/>
-      <c r="F91" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J91" s="6"/>
+      <c r="F91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="13"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="4"/>
+      <c r="I92" s="6"/>
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="13"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="4"/>
+      <c r="I93" s="6"/>
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="13"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="4"/>
+      <c r="I94" s="6"/>
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="13"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="2"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="4"/>
+      <c r="I95" s="6"/>
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="13"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="2"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="4"/>
+      <c r="I96" s="6"/>
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="13"/>
+      <c r="B97" s="14"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="4"/>
+      <c r="I97" s="6"/>
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="13"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="2"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="4"/>
+      <c r="I98" s="6"/>
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="13"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="2"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="4"/>
+      <c r="I99" s="6"/>
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="13"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="2"/>
-      <c r="I100" s="4"/>
+      <c r="I100" s="6"/>
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="13"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="2"/>
-      <c r="I101" s="4"/>
+      <c r="I101" s="6"/>
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="19"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="7"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="9"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G103" s="16" t="s">
+      <c r="B103" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H103" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J103" s="6"/>
+      <c r="J103" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="13"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="2"/>
-      <c r="I104" s="4"/>
+      <c r="I104" s="6"/>
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="14"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
-      <c r="H105" s="15"/>
+      <c r="H105" s="16"/>
       <c r="I105" s="18"/>
-      <c r="J105" s="15"/>
+      <c r="J105" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
+  <mergeCells count="146">
     <mergeCell ref="B3:D5"/>
     <mergeCell ref="E3:F5"/>
     <mergeCell ref="G3:H5"/>
@@ -2532,21 +2712,19 @@
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
     <mergeCell ref="G25:G27"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="J16:J18"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
     <mergeCell ref="G19:G24"/>
     <mergeCell ref="H19:H24"/>
     <mergeCell ref="H25:H27"/>
+    <mergeCell ref="F19:F27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="B55:B66"/>
@@ -2554,7 +2732,6 @@
     <mergeCell ref="G55:G66"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="E28:E30"/>
@@ -2567,39 +2744,31 @@
     <mergeCell ref="C43:C54"/>
     <mergeCell ref="D43:D45"/>
     <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
     <mergeCell ref="G43:G54"/>
     <mergeCell ref="H43:H54"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="J67:J78"/>
     <mergeCell ref="D76:D78"/>
     <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
     <mergeCell ref="D70:D72"/>
     <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="D55:D57"/>
     <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
     <mergeCell ref="H55:H66"/>
     <mergeCell ref="I55:I66"/>
     <mergeCell ref="J55:J66"/>
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
     <mergeCell ref="B91:B102"/>
     <mergeCell ref="C91:C102"/>
     <mergeCell ref="D91:D93"/>
     <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
     <mergeCell ref="G91:G102"/>
     <mergeCell ref="H91:H102"/>
     <mergeCell ref="I91:I102"/>
@@ -2607,14 +2776,12 @@
     <mergeCell ref="B79:B90"/>
     <mergeCell ref="D79:D81"/>
     <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
     <mergeCell ref="C79:C90"/>
     <mergeCell ref="G79:G90"/>
     <mergeCell ref="H79:H90"/>
     <mergeCell ref="I79:I90"/>
     <mergeCell ref="D67:D69"/>
     <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
     <mergeCell ref="C67:C78"/>
     <mergeCell ref="G67:G78"/>
     <mergeCell ref="H67:H78"/>
@@ -2631,47 +2798,40 @@
     <mergeCell ref="J91:J102"/>
     <mergeCell ref="D94:D96"/>
     <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
     <mergeCell ref="D100:D102"/>
     <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
     <mergeCell ref="J79:J90"/>
     <mergeCell ref="D88:D90"/>
     <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
     <mergeCell ref="D82:D84"/>
     <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
     <mergeCell ref="I31:I42"/>
     <mergeCell ref="J31:J42"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
     <mergeCell ref="D61:D63"/>
     <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
     <mergeCell ref="I43:I54"/>
     <mergeCell ref="J43:J54"/>
     <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
     <mergeCell ref="D52:D54"/>
     <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F31:F42"/>
+    <mergeCell ref="F43:F54"/>
+    <mergeCell ref="F55:F66"/>
     <mergeCell ref="D73:D75"/>
     <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
     <mergeCell ref="D85:D87"/>
     <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
     <mergeCell ref="D97:D99"/>
     <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="F67:F78"/>
+    <mergeCell ref="F79:F90"/>
+    <mergeCell ref="F91:F102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1"/>
